--- a/OrangeHRMApplication/src/com/OrangeHRMCompleteExcelFile/AddEmployee.xlsx
+++ b/OrangeHRMApplication/src/com/OrangeHRMCompleteExcelFile/AddEmployee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="81">
   <si>
     <t>Expected_LogInPageText</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>0059</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
   </si>
 </sst>
 </file>
@@ -802,7 +811,7 @@
         <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>36</v>
@@ -832,7 +841,7 @@
         <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s">
         <v>48</v>
@@ -876,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" t="s">
@@ -904,7 +913,7 @@
         <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s">
         <v>48</v>
@@ -941,7 +950,7 @@
         <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" t="s">
@@ -969,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="AB4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s">
         <v>48</v>
